--- a/data/raw/election/voters-age-sex-education/2023/Şırnak.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Şırnak.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\PycharmProjects\Git Folder\tartan-analytics\data\raw\election\voters-age-sex-education\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="36">
   <si>
     <t>Şırnak</t>
   </si>
@@ -121,6 +122,12 @@
   </si>
   <si>
     <t>Uludere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -654,7 +661,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -668,11 +675,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1002,10 +1018,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N186"/>
+  <dimension ref="A1:N188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,48 +1040,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1131,14 +1147,14 @@
       <c r="J6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>14</v>
+      <c r="K6" s="4">
+        <v>0</v>
       </c>
       <c r="L6" s="4">
         <v>22</v>
       </c>
       <c r="M6" s="5">
-        <v>1.3129999999999999</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1170,14 +1186,14 @@
       <c r="J7" s="4">
         <v>3</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>14</v>
+      <c r="K7" s="4">
+        <v>0</v>
       </c>
       <c r="L7" s="4">
         <v>5</v>
       </c>
       <c r="M7" s="5">
-        <v>1.1619999999999999</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1211,14 +1227,14 @@
       <c r="J8" s="4">
         <v>20</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>14</v>
+      <c r="K8" s="4">
+        <v>0</v>
       </c>
       <c r="L8" s="4">
         <v>14</v>
       </c>
       <c r="M8" s="5">
-        <v>1.6950000000000001</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1250,13 +1266,13 @@
       <c r="J9" s="4">
         <v>16</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>14</v>
+      <c r="K9" s="4">
+        <v>0</v>
       </c>
       <c r="L9" s="4">
         <v>8</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>876</v>
       </c>
     </row>
@@ -1291,13 +1307,13 @@
       <c r="J10" s="4">
         <v>31</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>14</v>
+      <c r="K10" s="4">
+        <v>0</v>
       </c>
       <c r="L10" s="4">
         <v>14</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>892</v>
       </c>
     </row>
@@ -1330,13 +1346,13 @@
       <c r="J11" s="4">
         <v>12</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>14</v>
+      <c r="K11" s="4">
+        <v>0</v>
       </c>
       <c r="L11" s="4">
         <v>6</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>548</v>
       </c>
     </row>
@@ -1371,13 +1387,13 @@
       <c r="J12" s="4">
         <v>18</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>14</v>
+      <c r="K12" s="4">
+        <v>0</v>
       </c>
       <c r="L12" s="4">
         <v>12</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>448</v>
       </c>
     </row>
@@ -1410,13 +1426,13 @@
       <c r="J13" s="4">
         <v>3</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>14</v>
+      <c r="K13" s="4">
+        <v>0</v>
       </c>
       <c r="L13" s="4">
         <v>9</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>387</v>
       </c>
     </row>
@@ -1451,13 +1467,13 @@
       <c r="J14" s="4">
         <v>5</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>14</v>
+      <c r="K14" s="4">
+        <v>0</v>
       </c>
       <c r="L14" s="4">
         <v>12</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>470</v>
       </c>
     </row>
@@ -1490,13 +1506,13 @@
       <c r="J15" s="4">
         <v>1</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>14</v>
+      <c r="K15" s="4">
+        <v>0</v>
       </c>
       <c r="L15" s="4">
         <v>9</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>493</v>
       </c>
     </row>
@@ -1531,13 +1547,13 @@
       <c r="J16" s="4">
         <v>1</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>14</v>
+      <c r="K16" s="4">
+        <v>0</v>
       </c>
       <c r="L16" s="4">
         <v>8</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>338</v>
       </c>
     </row>
@@ -1570,13 +1586,13 @@
       <c r="J17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>14</v>
+      <c r="K17" s="4">
+        <v>0</v>
       </c>
       <c r="L17" s="4">
         <v>7</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>296</v>
       </c>
     </row>
@@ -1611,13 +1627,13 @@
       <c r="J18" s="4">
         <v>3</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>14</v>
+      <c r="K18" s="4">
+        <v>0</v>
       </c>
       <c r="L18" s="4">
         <v>9</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>388</v>
       </c>
     </row>
@@ -1650,13 +1666,13 @@
       <c r="J19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>14</v>
+      <c r="K19" s="4">
+        <v>0</v>
       </c>
       <c r="L19" s="4">
         <v>12</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="6">
         <v>277</v>
       </c>
     </row>
@@ -1691,13 +1707,13 @@
       <c r="J20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>14</v>
+      <c r="K20" s="4">
+        <v>0</v>
       </c>
       <c r="L20" s="4">
         <v>9</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="6">
         <v>278</v>
       </c>
     </row>
@@ -1730,13 +1746,13 @@
       <c r="J21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>14</v>
+      <c r="K21" s="4">
+        <v>0</v>
       </c>
       <c r="L21" s="4">
         <v>8</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="6">
         <v>221</v>
       </c>
     </row>
@@ -1771,13 +1787,13 @@
       <c r="J22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>14</v>
+      <c r="K22" s="4">
+        <v>0</v>
       </c>
       <c r="L22" s="4">
         <v>4</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="6">
         <v>179</v>
       </c>
     </row>
@@ -1810,13 +1826,13 @@
       <c r="J23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>14</v>
+      <c r="K23" s="4">
+        <v>0</v>
       </c>
       <c r="L23" s="4">
         <v>5</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="6">
         <v>156</v>
       </c>
     </row>
@@ -1851,13 +1867,13 @@
       <c r="J24" s="4">
         <v>1</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>14</v>
+      <c r="K24" s="4">
+        <v>0</v>
       </c>
       <c r="L24" s="4">
         <v>3</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="6">
         <v>138</v>
       </c>
     </row>
@@ -1890,13 +1906,13 @@
       <c r="J25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>14</v>
+      <c r="K25" s="4">
+        <v>0</v>
       </c>
       <c r="L25" s="4">
         <v>10</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="6">
         <v>146</v>
       </c>
     </row>
@@ -1931,13 +1947,13 @@
       <c r="J26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>14</v>
+      <c r="K26" s="4">
+        <v>0</v>
       </c>
       <c r="L26" s="4">
         <v>4</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>113</v>
       </c>
     </row>
@@ -1970,13 +1986,13 @@
       <c r="J27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>14</v>
+      <c r="K27" s="4">
+        <v>0</v>
       </c>
       <c r="L27" s="4">
         <v>9</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="6">
         <v>171</v>
       </c>
     </row>
@@ -2011,13 +2027,13 @@
       <c r="J28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>14</v>
+      <c r="K28" s="4">
+        <v>0</v>
       </c>
       <c r="L28" s="4">
         <v>2</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="6">
         <v>139</v>
       </c>
     </row>
@@ -2050,13 +2066,13 @@
       <c r="J29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>14</v>
+      <c r="K29" s="4">
+        <v>0</v>
       </c>
       <c r="L29" s="4">
         <v>14</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="6">
         <v>213</v>
       </c>
     </row>
@@ -2064,46 +2080,46 @@
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
         <v>710</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="6">
         <v>563</v>
       </c>
       <c r="E30" s="5">
-        <v>1.02</v>
-      </c>
-      <c r="F30" s="5">
+        <v>1020</v>
+      </c>
+      <c r="F30" s="6">
         <v>554</v>
       </c>
       <c r="G30" s="5">
-        <v>2.0670000000000002</v>
+        <v>2067</v>
       </c>
       <c r="H30" s="5">
-        <v>4.2450000000000001</v>
+        <v>4245</v>
       </c>
       <c r="I30" s="5">
-        <v>1.849</v>
-      </c>
-      <c r="J30" s="5">
+        <v>1849</v>
+      </c>
+      <c r="J30" s="6">
         <v>114</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="4">
         <v>0</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="6">
         <v>215</v>
       </c>
       <c r="M30" s="5">
-        <v>11.337</v>
+        <v>11337</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2157,11 +2173,11 @@
       <c r="F32" s="4">
         <v>6</v>
       </c>
-      <c r="G32" s="4">
-        <v>4.9509999999999996</v>
-      </c>
-      <c r="H32" s="4">
-        <v>5.819</v>
+      <c r="G32" s="8">
+        <v>4951</v>
+      </c>
+      <c r="H32" s="8">
+        <v>5819</v>
       </c>
       <c r="I32" s="4">
         <v>533</v>
@@ -2176,7 +2192,7 @@
         <v>142</v>
       </c>
       <c r="M32" s="5">
-        <v>11.714</v>
+        <v>11714</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2196,11 +2212,11 @@
       <c r="F33" s="4">
         <v>11</v>
       </c>
-      <c r="G33" s="4">
-        <v>4.7729999999999997</v>
-      </c>
-      <c r="H33" s="4">
-        <v>5.5739999999999998</v>
+      <c r="G33" s="8">
+        <v>4773</v>
+      </c>
+      <c r="H33" s="8">
+        <v>5574</v>
       </c>
       <c r="I33" s="4">
         <v>764</v>
@@ -2215,7 +2231,7 @@
         <v>62</v>
       </c>
       <c r="M33" s="5">
-        <v>11.602</v>
+        <v>11602</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2237,14 +2253,14 @@
       <c r="F34" s="4">
         <v>136</v>
       </c>
-      <c r="G34" s="4">
-        <v>2.488</v>
-      </c>
-      <c r="H34" s="4">
-        <v>2.5310000000000001</v>
-      </c>
-      <c r="I34" s="4">
-        <v>2.1309999999999998</v>
+      <c r="G34" s="8">
+        <v>2488</v>
+      </c>
+      <c r="H34" s="8">
+        <v>2531</v>
+      </c>
+      <c r="I34" s="8">
+        <v>2131</v>
       </c>
       <c r="J34" s="4">
         <v>161</v>
@@ -2256,7 +2272,7 @@
         <v>40</v>
       </c>
       <c r="M34" s="5">
-        <v>7.6920000000000002</v>
+        <v>7692</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2276,14 +2292,14 @@
       <c r="F35" s="4">
         <v>308</v>
       </c>
-      <c r="G35" s="4">
-        <v>2.222</v>
-      </c>
-      <c r="H35" s="4">
-        <v>1.589</v>
-      </c>
-      <c r="I35" s="4">
-        <v>2.2709999999999999</v>
+      <c r="G35" s="8">
+        <v>2222</v>
+      </c>
+      <c r="H35" s="8">
+        <v>1589</v>
+      </c>
+      <c r="I35" s="8">
+        <v>2271</v>
       </c>
       <c r="J35" s="4">
         <v>168</v>
@@ -2295,7 +2311,7 @@
         <v>77</v>
       </c>
       <c r="M35" s="5">
-        <v>7.734</v>
+        <v>7734</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2317,14 +2333,14 @@
       <c r="F36" s="4">
         <v>855</v>
       </c>
-      <c r="G36" s="4">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="H36" s="4">
-        <v>1.958</v>
-      </c>
-      <c r="I36" s="4">
-        <v>2.2429999999999999</v>
+      <c r="G36" s="8">
+        <v>1233</v>
+      </c>
+      <c r="H36" s="8">
+        <v>1958</v>
+      </c>
+      <c r="I36" s="8">
+        <v>2243</v>
       </c>
       <c r="J36" s="4">
         <v>369</v>
@@ -2336,7 +2352,7 @@
         <v>53</v>
       </c>
       <c r="M36" s="5">
-        <v>7.0250000000000004</v>
+        <v>7025</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2353,17 +2369,17 @@
       <c r="E37" s="4">
         <v>448</v>
       </c>
-      <c r="F37" s="4">
-        <v>1.1020000000000001</v>
+      <c r="F37" s="8">
+        <v>1102</v>
       </c>
       <c r="G37" s="4">
         <v>830</v>
       </c>
-      <c r="H37" s="4">
-        <v>1.0189999999999999</v>
-      </c>
-      <c r="I37" s="4">
-        <v>1.282</v>
+      <c r="H37" s="8">
+        <v>1019</v>
+      </c>
+      <c r="I37" s="8">
+        <v>1282</v>
       </c>
       <c r="J37" s="4">
         <v>184</v>
@@ -2375,7 +2391,7 @@
         <v>110</v>
       </c>
       <c r="M37" s="5">
-        <v>6.4169999999999998</v>
+        <v>6417</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2400,11 +2416,11 @@
       <c r="G38" s="4">
         <v>696</v>
       </c>
-      <c r="H38" s="4">
-        <v>1.5249999999999999</v>
-      </c>
-      <c r="I38" s="4">
-        <v>1.0580000000000001</v>
+      <c r="H38" s="8">
+        <v>1525</v>
+      </c>
+      <c r="I38" s="8">
+        <v>1058</v>
       </c>
       <c r="J38" s="4">
         <v>190</v>
@@ -2416,7 +2432,7 @@
         <v>68</v>
       </c>
       <c r="M38" s="5">
-        <v>4.8789999999999996</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2455,7 +2471,7 @@
         <v>76</v>
       </c>
       <c r="M39" s="5">
-        <v>4.4279999999999999</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2480,8 +2496,8 @@
       <c r="G40" s="4">
         <v>867</v>
       </c>
-      <c r="H40" s="4">
-        <v>1.165</v>
+      <c r="H40" s="8">
+        <v>1165</v>
       </c>
       <c r="I40" s="4">
         <v>496</v>
@@ -2496,7 +2512,7 @@
         <v>55</v>
       </c>
       <c r="M40" s="5">
-        <v>4.117</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2510,8 +2526,8 @@
       <c r="D41" s="4">
         <v>736</v>
       </c>
-      <c r="E41" s="4">
-        <v>1.17</v>
+      <c r="E41" s="8">
+        <v>1170</v>
       </c>
       <c r="F41" s="4">
         <v>330</v>
@@ -2535,7 +2551,7 @@
         <v>84</v>
       </c>
       <c r="M41" s="5">
-        <v>4.4059999999999997</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2576,7 +2592,7 @@
         <v>51</v>
       </c>
       <c r="M42" s="5">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2615,7 +2631,7 @@
         <v>68</v>
       </c>
       <c r="M43" s="5">
-        <v>3.0880000000000001</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2656,7 +2672,7 @@
         <v>48</v>
       </c>
       <c r="M44" s="5">
-        <v>2.2559999999999998</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2695,7 +2711,7 @@
         <v>57</v>
       </c>
       <c r="M45" s="5">
-        <v>2.1909999999999998</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2736,7 +2752,7 @@
         <v>32</v>
       </c>
       <c r="M46" s="5">
-        <v>1.8720000000000001</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2775,7 +2791,7 @@
         <v>51</v>
       </c>
       <c r="M47" s="5">
-        <v>1.85</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2816,7 +2832,7 @@
         <v>32</v>
       </c>
       <c r="M48" s="5">
-        <v>1.238</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2855,7 +2871,7 @@
         <v>18</v>
       </c>
       <c r="M49" s="5">
-        <v>1.1499999999999999</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2895,7 +2911,7 @@
       <c r="L50" s="4">
         <v>16</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="6">
         <v>948</v>
       </c>
     </row>
@@ -2934,7 +2950,7 @@
       <c r="L51" s="4">
         <v>48</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="6">
         <v>995</v>
       </c>
     </row>
@@ -2975,7 +2991,7 @@
       <c r="L52" s="4">
         <v>5</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="6">
         <v>551</v>
       </c>
     </row>
@@ -3014,7 +3030,7 @@
       <c r="L53" s="4">
         <v>31</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="6">
         <v>718</v>
       </c>
     </row>
@@ -3055,7 +3071,7 @@
       <c r="L54" s="4">
         <v>10</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="6">
         <v>606</v>
       </c>
     </row>
@@ -3095,53 +3111,53 @@
         <v>98</v>
       </c>
       <c r="M55" s="5">
-        <v>1.151</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="5">
-        <v>6.29</v>
+        <v>6290</v>
       </c>
       <c r="D56" s="5">
-        <v>6.6319999999999997</v>
+        <v>6632</v>
       </c>
       <c r="E56" s="5">
-        <v>9.6050000000000004</v>
+        <v>9605</v>
       </c>
       <c r="F56" s="5">
-        <v>6.6</v>
+        <v>6600</v>
       </c>
       <c r="G56" s="5">
-        <v>22.466999999999999</v>
+        <v>22467</v>
       </c>
       <c r="H56" s="5">
-        <v>25.109000000000002</v>
+        <v>25109</v>
       </c>
       <c r="I56" s="5">
-        <v>12.106</v>
+        <v>12106</v>
       </c>
       <c r="J56" s="5">
-        <v>1.325</v>
-      </c>
-      <c r="K56" s="5">
+        <v>1325</v>
+      </c>
+      <c r="K56" s="6">
         <v>62</v>
       </c>
       <c r="L56" s="5">
-        <v>1.3320000000000001</v>
+        <v>1332</v>
       </c>
       <c r="M56" s="5">
-        <v>91.528000000000006</v>
+        <v>91528</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3213,7 +3229,7 @@
       <c r="L58" s="4">
         <v>11</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="6">
         <v>916</v>
       </c>
     </row>
@@ -3252,7 +3268,7 @@
       <c r="L59" s="4">
         <v>3</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="6">
         <v>795</v>
       </c>
     </row>
@@ -3293,7 +3309,7 @@
       <c r="L60" s="4">
         <v>3</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="6">
         <v>800</v>
       </c>
     </row>
@@ -3332,7 +3348,7 @@
       <c r="L61" s="4">
         <v>2</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="6">
         <v>578</v>
       </c>
     </row>
@@ -3373,7 +3389,7 @@
       <c r="L62" s="4">
         <v>3</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="6">
         <v>533</v>
       </c>
     </row>
@@ -3412,7 +3428,7 @@
       <c r="L63" s="4">
         <v>3</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="6">
         <v>395</v>
       </c>
     </row>
@@ -3453,7 +3469,7 @@
       <c r="L64" s="4">
         <v>1</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="6">
         <v>300</v>
       </c>
     </row>
@@ -3492,7 +3508,7 @@
       <c r="L65" s="4">
         <v>1</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="6">
         <v>283</v>
       </c>
     </row>
@@ -3533,7 +3549,7 @@
       <c r="L66" s="4">
         <v>1</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="6">
         <v>253</v>
       </c>
     </row>
@@ -3572,7 +3588,7 @@
       <c r="L67" s="4">
         <v>4</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="6">
         <v>252</v>
       </c>
     </row>
@@ -3613,7 +3629,7 @@
       <c r="L68" s="4">
         <v>9</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="6">
         <v>187</v>
       </c>
     </row>
@@ -3652,7 +3668,7 @@
       <c r="L69" s="4">
         <v>3</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="6">
         <v>193</v>
       </c>
     </row>
@@ -3693,7 +3709,7 @@
       <c r="L70" s="4">
         <v>4</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="6">
         <v>142</v>
       </c>
     </row>
@@ -3732,7 +3748,7 @@
       <c r="L71" s="4">
         <v>6</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="6">
         <v>140</v>
       </c>
     </row>
@@ -3773,7 +3789,7 @@
       <c r="L72" s="4">
         <v>3</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="6">
         <v>127</v>
       </c>
     </row>
@@ -3812,7 +3828,7 @@
       <c r="L73" s="4">
         <v>4</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="6">
         <v>160</v>
       </c>
     </row>
@@ -3853,7 +3869,7 @@
       <c r="L74" s="4">
         <v>1</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="6">
         <v>126</v>
       </c>
     </row>
@@ -3892,7 +3908,7 @@
       <c r="L75" s="4">
         <v>1</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="6">
         <v>104</v>
       </c>
     </row>
@@ -3933,7 +3949,7 @@
       <c r="L76" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="6">
         <v>105</v>
       </c>
     </row>
@@ -3972,7 +3988,7 @@
       <c r="L77" s="4">
         <v>2</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="6">
         <v>116</v>
       </c>
     </row>
@@ -4013,7 +4029,7 @@
       <c r="L78" s="4">
         <v>1</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="6">
         <v>80</v>
       </c>
     </row>
@@ -4052,7 +4068,7 @@
       <c r="L79" s="4">
         <v>2</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="6">
         <v>86</v>
       </c>
     </row>
@@ -4093,7 +4109,7 @@
       <c r="L80" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="6">
         <v>82</v>
       </c>
     </row>
@@ -4132,7 +4148,7 @@
       <c r="L81" s="4">
         <v>4</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="6">
         <v>142</v>
       </c>
     </row>
@@ -4140,46 +4156,46 @@
       <c r="A82" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="6">
         <v>679</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="6">
         <v>471</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="6">
         <v>824</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="6">
         <v>496</v>
       </c>
       <c r="G82" s="5">
-        <v>1.3779999999999999</v>
+        <v>1378</v>
       </c>
       <c r="H82" s="5">
-        <v>1.8859999999999999</v>
+        <v>1886</v>
       </c>
       <c r="I82" s="5">
-        <v>1.0109999999999999</v>
-      </c>
-      <c r="J82" s="5">
+        <v>1011</v>
+      </c>
+      <c r="J82" s="6">
         <v>74</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="6">
         <v>4</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="6">
         <v>72</v>
       </c>
       <c r="M82" s="5">
-        <v>6.8949999999999996</v>
+        <v>6895</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4233,11 +4249,11 @@
       <c r="F84" s="4">
         <v>1</v>
       </c>
-      <c r="G84" s="4">
-        <v>2.4159999999999999</v>
-      </c>
-      <c r="H84" s="4">
-        <v>3.1219999999999999</v>
+      <c r="G84" s="8">
+        <v>2416</v>
+      </c>
+      <c r="H84" s="8">
+        <v>3122</v>
       </c>
       <c r="I84" s="4">
         <v>345</v>
@@ -4252,7 +4268,7 @@
         <v>109</v>
       </c>
       <c r="M84" s="5">
-        <v>6.1779999999999999</v>
+        <v>6178</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4272,11 +4288,11 @@
       <c r="F85" s="4">
         <v>6</v>
       </c>
-      <c r="G85" s="4">
-        <v>2.2930000000000001</v>
-      </c>
-      <c r="H85" s="4">
-        <v>2.8479999999999999</v>
+      <c r="G85" s="8">
+        <v>2293</v>
+      </c>
+      <c r="H85" s="8">
+        <v>2848</v>
       </c>
       <c r="I85" s="4">
         <v>482</v>
@@ -4291,7 +4307,7 @@
         <v>19</v>
       </c>
       <c r="M85" s="5">
-        <v>6.0010000000000003</v>
+        <v>6001</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4313,14 +4329,14 @@
       <c r="F86" s="4">
         <v>77</v>
       </c>
-      <c r="G86" s="4">
-        <v>1.125</v>
-      </c>
-      <c r="H86" s="4">
-        <v>1.119</v>
-      </c>
-      <c r="I86" s="4">
-        <v>1.036</v>
+      <c r="G86" s="8">
+        <v>1125</v>
+      </c>
+      <c r="H86" s="8">
+        <v>1119</v>
+      </c>
+      <c r="I86" s="8">
+        <v>1036</v>
       </c>
       <c r="J86" s="4">
         <v>96</v>
@@ -4332,7 +4348,7 @@
         <v>23</v>
       </c>
       <c r="M86" s="5">
-        <v>3.6360000000000001</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4358,8 +4374,8 @@
       <c r="H87" s="4">
         <v>709</v>
       </c>
-      <c r="I87" s="4">
-        <v>1.1379999999999999</v>
+      <c r="I87" s="8">
+        <v>1138</v>
       </c>
       <c r="J87" s="4">
         <v>79</v>
@@ -4371,7 +4387,7 @@
         <v>23</v>
       </c>
       <c r="M87" s="5">
-        <v>3.5470000000000002</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4412,7 +4428,7 @@
         <v>27</v>
       </c>
       <c r="M88" s="5">
-        <v>2.8929999999999998</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4451,7 +4467,7 @@
         <v>25</v>
       </c>
       <c r="M89" s="5">
-        <v>2.6320000000000001</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4492,7 +4508,7 @@
         <v>30</v>
       </c>
       <c r="M90" s="5">
-        <v>1.8939999999999999</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4531,7 +4547,7 @@
         <v>26</v>
       </c>
       <c r="M91" s="5">
-        <v>1.95</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4572,7 +4588,7 @@
         <v>23</v>
       </c>
       <c r="M92" s="5">
-        <v>1.6910000000000001</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4611,7 +4627,7 @@
         <v>34</v>
       </c>
       <c r="M93" s="5">
-        <v>1.9259999999999999</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4652,7 +4668,7 @@
         <v>22</v>
       </c>
       <c r="M94" s="5">
-        <v>1.333</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4691,7 +4707,7 @@
         <v>29</v>
       </c>
       <c r="M95" s="5">
-        <v>1.583</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4732,7 +4748,7 @@
         <v>27</v>
       </c>
       <c r="M96" s="5">
-        <v>1.05</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4771,7 +4787,7 @@
         <v>27</v>
       </c>
       <c r="M97" s="5">
-        <v>1.2090000000000001</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4811,7 +4827,7 @@
       <c r="L98" s="4">
         <v>20</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="6">
         <v>810</v>
       </c>
     </row>
@@ -4850,7 +4866,7 @@
       <c r="L99" s="4">
         <v>16</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="6">
         <v>803</v>
       </c>
     </row>
@@ -4891,7 +4907,7 @@
       <c r="L100" s="4">
         <v>11</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="6">
         <v>588</v>
       </c>
     </row>
@@ -4930,7 +4946,7 @@
       <c r="L101" s="4">
         <v>22</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="6">
         <v>613</v>
       </c>
     </row>
@@ -4971,7 +4987,7 @@
       <c r="L102" s="4">
         <v>5</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="6">
         <v>552</v>
       </c>
     </row>
@@ -5010,7 +5026,7 @@
       <c r="L103" s="4">
         <v>18</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="6">
         <v>602</v>
       </c>
     </row>
@@ -5051,7 +5067,7 @@
       <c r="L104" s="4">
         <v>6</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="6">
         <v>400</v>
       </c>
     </row>
@@ -5090,7 +5106,7 @@
       <c r="L105" s="4">
         <v>13</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="6">
         <v>482</v>
       </c>
     </row>
@@ -5131,7 +5147,7 @@
       <c r="L106" s="4">
         <v>17</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="6">
         <v>430</v>
       </c>
     </row>
@@ -5170,7 +5186,7 @@
       <c r="L107" s="4">
         <v>39</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="6">
         <v>748</v>
       </c>
     </row>
@@ -5178,46 +5194,46 @@
       <c r="A108" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B108" s="6"/>
+      <c r="B108" s="7"/>
       <c r="C108" s="5">
-        <v>3.5539999999999998</v>
+        <v>3554</v>
       </c>
       <c r="D108" s="5">
-        <v>3.161</v>
+        <v>3161</v>
       </c>
       <c r="E108" s="5">
-        <v>4.6529999999999996</v>
+        <v>4653</v>
       </c>
       <c r="F108" s="5">
-        <v>2.206</v>
+        <v>2206</v>
       </c>
       <c r="G108" s="5">
-        <v>9.8559999999999999</v>
+        <v>9856</v>
       </c>
       <c r="H108" s="5">
-        <v>13.657999999999999</v>
+        <v>13658</v>
       </c>
       <c r="I108" s="5">
-        <v>5.2080000000000002</v>
-      </c>
-      <c r="J108" s="5">
+        <v>5208</v>
+      </c>
+      <c r="J108" s="6">
         <v>611</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="6">
         <v>33</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="6">
         <v>611</v>
       </c>
       <c r="M108" s="5">
-        <v>43.551000000000002</v>
+        <v>43551</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5271,11 +5287,11 @@
       <c r="F110" s="4">
         <v>4</v>
       </c>
-      <c r="G110" s="4">
-        <v>4.7720000000000002</v>
-      </c>
-      <c r="H110" s="4">
-        <v>5.15</v>
+      <c r="G110" s="8">
+        <v>4772</v>
+      </c>
+      <c r="H110" s="8">
+        <v>5150</v>
       </c>
       <c r="I110" s="4">
         <v>544</v>
@@ -5290,7 +5306,7 @@
         <v>128</v>
       </c>
       <c r="M110" s="5">
-        <v>10.962999999999999</v>
+        <v>10963</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5310,11 +5326,11 @@
       <c r="F111" s="4">
         <v>6</v>
       </c>
-      <c r="G111" s="4">
-        <v>4.4729999999999999</v>
-      </c>
-      <c r="H111" s="4">
-        <v>4.9020000000000001</v>
+      <c r="G111" s="8">
+        <v>4473</v>
+      </c>
+      <c r="H111" s="8">
+        <v>4902</v>
       </c>
       <c r="I111" s="4">
         <v>663</v>
@@ -5329,7 +5345,7 @@
         <v>60</v>
       </c>
       <c r="M111" s="5">
-        <v>10.641999999999999</v>
+        <v>10642</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5351,14 +5367,14 @@
       <c r="F112" s="4">
         <v>76</v>
       </c>
-      <c r="G112" s="4">
-        <v>2.4769999999999999</v>
-      </c>
-      <c r="H112" s="4">
-        <v>2.3719999999999999</v>
-      </c>
-      <c r="I112" s="4">
-        <v>2.0030000000000001</v>
+      <c r="G112" s="8">
+        <v>2477</v>
+      </c>
+      <c r="H112" s="8">
+        <v>2372</v>
+      </c>
+      <c r="I112" s="8">
+        <v>2003</v>
       </c>
       <c r="J112" s="4">
         <v>130</v>
@@ -5370,7 +5386,7 @@
         <v>35</v>
       </c>
       <c r="M112" s="5">
-        <v>7.3730000000000002</v>
+        <v>7373</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5390,14 +5406,14 @@
       <c r="F113" s="4">
         <v>224</v>
       </c>
-      <c r="G113" s="4">
-        <v>2.36</v>
-      </c>
-      <c r="H113" s="4">
-        <v>1.4630000000000001</v>
-      </c>
-      <c r="I113" s="4">
-        <v>1.927</v>
+      <c r="G113" s="8">
+        <v>2360</v>
+      </c>
+      <c r="H113" s="8">
+        <v>1463</v>
+      </c>
+      <c r="I113" s="8">
+        <v>1927</v>
       </c>
       <c r="J113" s="4">
         <v>137</v>
@@ -5409,7 +5425,7 @@
         <v>41</v>
       </c>
       <c r="M113" s="5">
-        <v>7.0679999999999996</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5431,14 +5447,14 @@
       <c r="F114" s="4">
         <v>553</v>
       </c>
-      <c r="G114" s="4">
-        <v>1.2350000000000001</v>
-      </c>
-      <c r="H114" s="4">
-        <v>2.1819999999999999</v>
-      </c>
-      <c r="I114" s="4">
-        <v>1.895</v>
+      <c r="G114" s="8">
+        <v>1235</v>
+      </c>
+      <c r="H114" s="8">
+        <v>2182</v>
+      </c>
+      <c r="I114" s="8">
+        <v>1895</v>
       </c>
       <c r="J114" s="4">
         <v>285</v>
@@ -5450,7 +5466,7 @@
         <v>35</v>
       </c>
       <c r="M114" s="5">
-        <v>6.41</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5470,14 +5486,14 @@
       <c r="F115" s="4">
         <v>827</v>
       </c>
-      <c r="G115" s="4">
-        <v>1.1739999999999999</v>
-      </c>
-      <c r="H115" s="4">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="I115" s="4">
-        <v>1.05</v>
+      <c r="G115" s="8">
+        <v>1174</v>
+      </c>
+      <c r="H115" s="8">
+        <v>1191</v>
+      </c>
+      <c r="I115" s="8">
+        <v>1050</v>
       </c>
       <c r="J115" s="4">
         <v>119</v>
@@ -5489,7 +5505,7 @@
         <v>69</v>
       </c>
       <c r="M115" s="5">
-        <v>5.7690000000000001</v>
+        <v>5769</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5514,8 +5530,8 @@
       <c r="G116" s="4">
         <v>668</v>
       </c>
-      <c r="H116" s="4">
-        <v>1.7849999999999999</v>
+      <c r="H116" s="8">
+        <v>1785</v>
       </c>
       <c r="I116" s="4">
         <v>918</v>
@@ -5530,7 +5546,7 @@
         <v>34</v>
       </c>
       <c r="M116" s="5">
-        <v>4.4489999999999998</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5569,7 +5585,7 @@
         <v>61</v>
       </c>
       <c r="M117" s="5">
-        <v>4.0990000000000002</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5594,8 +5610,8 @@
       <c r="G118" s="4">
         <v>831</v>
       </c>
-      <c r="H118" s="4">
-        <v>1.411</v>
+      <c r="H118" s="8">
+        <v>1411</v>
       </c>
       <c r="I118" s="4">
         <v>376</v>
@@ -5610,7 +5626,7 @@
         <v>46</v>
       </c>
       <c r="M118" s="5">
-        <v>3.613</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5649,7 +5665,7 @@
         <v>58</v>
       </c>
       <c r="M119" s="5">
-        <v>3.806</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5690,7 +5706,7 @@
         <v>70</v>
       </c>
       <c r="M120" s="5">
-        <v>2.597</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5729,7 +5745,7 @@
         <v>64</v>
       </c>
       <c r="M121" s="5">
-        <v>2.6680000000000001</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5770,7 +5786,7 @@
         <v>46</v>
       </c>
       <c r="M122" s="5">
-        <v>2.0289999999999999</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5809,7 +5825,7 @@
         <v>58</v>
       </c>
       <c r="M123" s="5">
-        <v>2.1579999999999999</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5850,7 +5866,7 @@
         <v>31</v>
       </c>
       <c r="M124" s="5">
-        <v>1.629</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5889,7 +5905,7 @@
         <v>36</v>
       </c>
       <c r="M125" s="5">
-        <v>1.5860000000000001</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5930,7 +5946,7 @@
         <v>15</v>
       </c>
       <c r="M126" s="5">
-        <v>1.0369999999999999</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5968,7 +5984,7 @@
       <c r="L127" s="4">
         <v>33</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="6">
         <v>976</v>
       </c>
     </row>
@@ -6009,7 +6025,7 @@
       <c r="L128" s="4">
         <v>23</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="6">
         <v>790</v>
       </c>
     </row>
@@ -6048,7 +6064,7 @@
       <c r="L129" s="4">
         <v>34</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="6">
         <v>853</v>
       </c>
     </row>
@@ -6089,7 +6105,7 @@
       <c r="L130" s="4">
         <v>15</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="6">
         <v>462</v>
       </c>
     </row>
@@ -6128,7 +6144,7 @@
       <c r="L131" s="4">
         <v>41</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="6">
         <v>703</v>
       </c>
     </row>
@@ -6169,7 +6185,7 @@
       <c r="L132" s="4">
         <v>25</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="6">
         <v>575</v>
       </c>
     </row>
@@ -6209,53 +6225,53 @@
         <v>58</v>
       </c>
       <c r="M133" s="5">
-        <v>1.0229999999999999</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B134" s="6"/>
+      <c r="B134" s="7"/>
       <c r="C134" s="5">
-        <v>6.0830000000000002</v>
+        <v>6083</v>
       </c>
       <c r="D134" s="5">
-        <v>4.5069999999999997</v>
+        <v>4507</v>
       </c>
       <c r="E134" s="5">
-        <v>7.3390000000000004</v>
+        <v>7339</v>
       </c>
       <c r="F134" s="5">
-        <v>4.4710000000000001</v>
+        <v>4471</v>
       </c>
       <c r="G134" s="5">
-        <v>23.198</v>
+        <v>23198</v>
       </c>
       <c r="H134" s="5">
-        <v>25.216999999999999</v>
+        <v>25217</v>
       </c>
       <c r="I134" s="5">
-        <v>10.31</v>
+        <v>10310</v>
       </c>
       <c r="J134" s="5">
-        <v>1.0069999999999999</v>
-      </c>
-      <c r="K134" s="5">
+        <v>1007</v>
+      </c>
+      <c r="K134" s="6">
         <v>30</v>
       </c>
       <c r="L134" s="5">
-        <v>1.1160000000000001</v>
+        <v>1116</v>
       </c>
       <c r="M134" s="5">
-        <v>83.278000000000006</v>
+        <v>83278</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6309,11 +6325,11 @@
       <c r="F136" s="4">
         <v>3</v>
       </c>
-      <c r="G136" s="4">
-        <v>1.994</v>
-      </c>
-      <c r="H136" s="4">
-        <v>4.2699999999999996</v>
+      <c r="G136" s="8">
+        <v>1994</v>
+      </c>
+      <c r="H136" s="8">
+        <v>4270</v>
       </c>
       <c r="I136" s="4">
         <v>597</v>
@@ -6328,7 +6344,7 @@
         <v>97</v>
       </c>
       <c r="M136" s="5">
-        <v>7.1230000000000002</v>
+        <v>7123</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6348,11 +6364,11 @@
       <c r="F137" s="4">
         <v>4</v>
       </c>
-      <c r="G137" s="4">
-        <v>2.15</v>
-      </c>
-      <c r="H137" s="4">
-        <v>3.7719999999999998</v>
+      <c r="G137" s="8">
+        <v>2150</v>
+      </c>
+      <c r="H137" s="8">
+        <v>3772</v>
       </c>
       <c r="I137" s="4">
         <v>653</v>
@@ -6367,7 +6383,7 @@
         <v>41</v>
       </c>
       <c r="M137" s="5">
-        <v>6.8470000000000004</v>
+        <v>6847</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6392,11 +6408,11 @@
       <c r="G138" s="4">
         <v>985</v>
       </c>
-      <c r="H138" s="4">
-        <v>2.895</v>
-      </c>
-      <c r="I138" s="4">
-        <v>2.6360000000000001</v>
+      <c r="H138" s="8">
+        <v>2895</v>
+      </c>
+      <c r="I138" s="8">
+        <v>2636</v>
       </c>
       <c r="J138" s="4">
         <v>136</v>
@@ -6408,7 +6424,7 @@
         <v>36</v>
       </c>
       <c r="M138" s="5">
-        <v>6.8040000000000003</v>
+        <v>6804</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6428,14 +6444,14 @@
       <c r="F139" s="4">
         <v>179</v>
       </c>
-      <c r="G139" s="4">
-        <v>1.2569999999999999</v>
-      </c>
-      <c r="H139" s="4">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="I139" s="4">
-        <v>2.0169999999999999</v>
+      <c r="G139" s="8">
+        <v>1257</v>
+      </c>
+      <c r="H139" s="8">
+        <v>1297</v>
+      </c>
+      <c r="I139" s="8">
+        <v>2017</v>
       </c>
       <c r="J139" s="4">
         <v>125</v>
@@ -6447,7 +6463,7 @@
         <v>31</v>
       </c>
       <c r="M139" s="5">
-        <v>5.3390000000000004</v>
+        <v>5339</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6472,11 +6488,11 @@
       <c r="G140" s="4">
         <v>458</v>
       </c>
-      <c r="H140" s="4">
-        <v>1.7849999999999999</v>
-      </c>
-      <c r="I140" s="4">
-        <v>2.5390000000000001</v>
+      <c r="H140" s="8">
+        <v>1785</v>
+      </c>
+      <c r="I140" s="8">
+        <v>2539</v>
       </c>
       <c r="J140" s="4">
         <v>338</v>
@@ -6488,7 +6504,7 @@
         <v>27</v>
       </c>
       <c r="M140" s="5">
-        <v>5.6230000000000002</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6514,8 +6530,8 @@
       <c r="H141" s="4">
         <v>930</v>
       </c>
-      <c r="I141" s="4">
-        <v>1.24</v>
+      <c r="I141" s="8">
+        <v>1240</v>
       </c>
       <c r="J141" s="4">
         <v>157</v>
@@ -6527,7 +6543,7 @@
         <v>29</v>
       </c>
       <c r="M141" s="5">
-        <v>4.2770000000000001</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6552,11 +6568,11 @@
       <c r="G142" s="4">
         <v>286</v>
       </c>
-      <c r="H142" s="4">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="I142" s="4">
-        <v>1.0389999999999999</v>
+      <c r="H142" s="8">
+        <v>1192</v>
+      </c>
+      <c r="I142" s="8">
+        <v>1039</v>
       </c>
       <c r="J142" s="4">
         <v>183</v>
@@ -6568,7 +6584,7 @@
         <v>21</v>
       </c>
       <c r="M142" s="5">
-        <v>3.2450000000000001</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6607,7 +6623,7 @@
         <v>38</v>
       </c>
       <c r="M143" s="5">
-        <v>2.7240000000000002</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6648,7 +6664,7 @@
         <v>23</v>
       </c>
       <c r="M144" s="5">
-        <v>2.819</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6687,7 +6703,7 @@
         <v>40</v>
       </c>
       <c r="M145" s="5">
-        <v>2.77</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6728,7 +6744,7 @@
         <v>23</v>
       </c>
       <c r="M146" s="5">
-        <v>1.758</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6767,7 +6783,7 @@
         <v>32</v>
       </c>
       <c r="M147" s="5">
-        <v>1.7450000000000001</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6808,7 +6824,7 @@
         <v>31</v>
       </c>
       <c r="M148" s="5">
-        <v>1.2969999999999999</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6847,7 +6863,7 @@
         <v>29</v>
       </c>
       <c r="M149" s="5">
-        <v>1.218</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6888,7 +6904,7 @@
         <v>17</v>
       </c>
       <c r="M150" s="5">
-        <v>1.226</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6927,7 +6943,7 @@
         <v>24</v>
       </c>
       <c r="M151" s="5">
-        <v>1.036</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6967,7 +6983,7 @@
       <c r="L152" s="4">
         <v>10</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="6">
         <v>743</v>
       </c>
     </row>
@@ -7006,7 +7022,7 @@
       <c r="L153" s="4">
         <v>9</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="6">
         <v>611</v>
       </c>
     </row>
@@ -7047,7 +7063,7 @@
       <c r="L154" s="4">
         <v>6</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="6">
         <v>567</v>
       </c>
     </row>
@@ -7086,7 +7102,7 @@
       <c r="L155" s="4">
         <v>27</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="6">
         <v>660</v>
       </c>
     </row>
@@ -7127,7 +7143,7 @@
       <c r="L156" s="4">
         <v>1</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="6">
         <v>333</v>
       </c>
     </row>
@@ -7166,7 +7182,7 @@
       <c r="L157" s="4">
         <v>22</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="6">
         <v>512</v>
       </c>
     </row>
@@ -7207,7 +7223,7 @@
       <c r="L158" s="4">
         <v>4</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="6">
         <v>429</v>
       </c>
     </row>
@@ -7246,7 +7262,7 @@
       <c r="L159" s="4">
         <v>52</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="6">
         <v>804</v>
       </c>
     </row>
@@ -7254,46 +7270,46 @@
       <c r="A160" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B160" s="6"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="5">
-        <v>3.5819999999999999</v>
+        <v>3582</v>
       </c>
       <c r="D160" s="5">
-        <v>2.968</v>
+        <v>2968</v>
       </c>
       <c r="E160" s="5">
-        <v>4.673</v>
+        <v>4673</v>
       </c>
       <c r="F160" s="5">
-        <v>3.4249999999999998</v>
+        <v>3425</v>
       </c>
       <c r="G160" s="5">
-        <v>10.96</v>
+        <v>10960</v>
       </c>
       <c r="H160" s="5">
-        <v>20.3</v>
+        <v>20300</v>
       </c>
       <c r="I160" s="5">
-        <v>12.625</v>
+        <v>12625</v>
       </c>
       <c r="J160" s="5">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="K160" s="5">
+        <v>1178</v>
+      </c>
+      <c r="K160" s="6">
         <v>129</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="6">
         <v>670</v>
       </c>
       <c r="M160" s="5">
-        <v>60.51</v>
+        <v>60510</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7347,11 +7363,11 @@
       <c r="F162" s="4">
         <v>1</v>
       </c>
-      <c r="G162" s="4">
-        <v>1.1819999999999999</v>
-      </c>
-      <c r="H162" s="4">
-        <v>1.855</v>
+      <c r="G162" s="8">
+        <v>1182</v>
+      </c>
+      <c r="H162" s="8">
+        <v>1855</v>
       </c>
       <c r="I162" s="4">
         <v>305</v>
@@ -7366,7 +7382,7 @@
         <v>138</v>
       </c>
       <c r="M162" s="5">
-        <v>3.6669999999999998</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7386,11 +7402,11 @@
       <c r="F163" s="4">
         <v>1</v>
       </c>
-      <c r="G163" s="4">
-        <v>1.046</v>
-      </c>
-      <c r="H163" s="4">
-        <v>1.5269999999999999</v>
+      <c r="G163" s="8">
+        <v>1046</v>
+      </c>
+      <c r="H163" s="8">
+        <v>1527</v>
       </c>
       <c r="I163" s="4">
         <v>210</v>
@@ -7405,7 +7421,7 @@
         <v>100</v>
       </c>
       <c r="M163" s="5">
-        <v>3.0640000000000001</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7430,8 +7446,8 @@
       <c r="G164" s="4">
         <v>792</v>
       </c>
-      <c r="H164" s="4">
-        <v>1.3029999999999999</v>
+      <c r="H164" s="8">
+        <v>1303</v>
       </c>
       <c r="I164" s="4">
         <v>763</v>
@@ -7446,7 +7462,7 @@
         <v>58</v>
       </c>
       <c r="M164" s="5">
-        <v>3.14</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7485,7 +7501,7 @@
         <v>44</v>
       </c>
       <c r="M165" s="5">
-        <v>1.944</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7526,7 +7542,7 @@
         <v>79</v>
       </c>
       <c r="M166" s="5">
-        <v>2.1339999999999999</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7565,7 +7581,7 @@
         <v>69</v>
       </c>
       <c r="M167" s="5">
-        <v>1.4550000000000001</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7606,7 +7622,7 @@
         <v>75</v>
       </c>
       <c r="M168" s="5">
-        <v>1.145</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7644,7 +7660,7 @@
       <c r="L169" s="4">
         <v>46</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="6">
         <v>943</v>
       </c>
     </row>
@@ -7686,7 +7702,7 @@
         <v>79</v>
       </c>
       <c r="M170" s="5">
-        <v>1.36</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7725,7 +7741,7 @@
         <v>72</v>
       </c>
       <c r="M171" s="5">
-        <v>1.1559999999999999</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7765,7 +7781,7 @@
       <c r="L172" s="4">
         <v>59</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="6">
         <v>877</v>
       </c>
     </row>
@@ -7804,7 +7820,7 @@
       <c r="L173" s="4">
         <v>71</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="6">
         <v>866</v>
       </c>
     </row>
@@ -7845,7 +7861,7 @@
       <c r="L174" s="4">
         <v>54</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="6">
         <v>659</v>
       </c>
     </row>
@@ -7884,7 +7900,7 @@
       <c r="L175" s="4">
         <v>54</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="6">
         <v>633</v>
       </c>
     </row>
@@ -7925,7 +7941,7 @@
       <c r="L176" s="4">
         <v>57</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="6">
         <v>583</v>
       </c>
     </row>
@@ -7964,7 +7980,7 @@
       <c r="L177" s="4">
         <v>61</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="6">
         <v>598</v>
       </c>
     </row>
@@ -8005,7 +8021,7 @@
       <c r="L178" s="4">
         <v>21</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="6">
         <v>397</v>
       </c>
     </row>
@@ -8044,7 +8060,7 @@
       <c r="L179" s="4">
         <v>46</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="6">
         <v>411</v>
       </c>
     </row>
@@ -8085,7 +8101,7 @@
       <c r="L180" s="4">
         <v>22</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="6">
         <v>244</v>
       </c>
     </row>
@@ -8124,7 +8140,7 @@
       <c r="L181" s="4">
         <v>56</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="6">
         <v>425</v>
       </c>
     </row>
@@ -8165,7 +8181,7 @@
       <c r="L182" s="4">
         <v>14</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="6">
         <v>259</v>
       </c>
     </row>
@@ -8204,7 +8220,7 @@
       <c r="L183" s="4">
         <v>48</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="6">
         <v>304</v>
       </c>
     </row>
@@ -8245,7 +8261,7 @@
       <c r="L184" s="4">
         <v>42</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="6">
         <v>290</v>
       </c>
     </row>
@@ -8284,7 +8300,7 @@
       <c r="L185" s="4">
         <v>81</v>
       </c>
-      <c r="M185" s="5">
+      <c r="M185" s="6">
         <v>526</v>
       </c>
     </row>
@@ -8292,39 +8308,49 @@
       <c r="A186" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B186" s="6"/>
+      <c r="B186" s="7"/>
       <c r="C186" s="5">
-        <v>1.873</v>
+        <v>1873</v>
       </c>
       <c r="D186" s="5">
-        <v>1.5309999999999999</v>
+        <v>1531</v>
       </c>
       <c r="E186" s="5">
-        <v>2.976</v>
+        <v>2976</v>
       </c>
       <c r="F186" s="5">
-        <v>1.413</v>
+        <v>1413</v>
       </c>
       <c r="G186" s="5">
-        <v>5.6689999999999996</v>
+        <v>5669</v>
       </c>
       <c r="H186" s="5">
-        <v>8.9789999999999992</v>
+        <v>8979</v>
       </c>
       <c r="I186" s="5">
-        <v>2.944</v>
-      </c>
-      <c r="J186" s="5">
+        <v>2944</v>
+      </c>
+      <c r="J186" s="6">
         <v>238</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="6">
         <v>11</v>
       </c>
       <c r="L186" s="5">
-        <v>1.446</v>
+        <v>1446</v>
       </c>
       <c r="M186" s="5">
-        <v>27.08</v>
+        <v>27080</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A188" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
